--- a/Filtered_By_Region/Region X/Region X_HEALTH.xlsx
+++ b/Filtered_By_Region/Region X/Region X_HEALTH.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z142"/>
+  <dimension ref="A1:AA142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +569,11 @@
           <t>Other Remarks</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1173,7 +1179,6 @@
           <t>DCD Builders and Enterprises</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1383,15 +1388,11 @@
           <t>101-24-10-245</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
           <t>September 20, 2024</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>RARMAN CONSTRUCTION AND TRADING</t>
@@ -1728,7 +1729,6 @@
           <t>PB-BAC1- Construction-2024-002</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
           <t>January 17, 2024</t>
@@ -1846,7 +1846,6 @@
           <t>INFRA-2023-DEPED OROQ-05</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
           <t>November 23, 2024</t>
@@ -1867,7 +1866,6 @@
           <t>August 14, 2024</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
           <t>RJLG Construction &amp; supply</t>
@@ -2082,7 +2080,6 @@
           <t>Health Facilities 2023-Region X-Tangub 008</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
           <t>November 23, 2024</t>
@@ -2301,21 +2298,15 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
           <t>WINS 2022 - R X - Camiguin - 001</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" s="2" t="n">
+      <c r="X16" s="3" t="n">
         <v>44721</v>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2323,7 +2314,6 @@
           <t>MINKONSTRAK ENGINEERING &amp; GEN. SRVC.</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2387,21 +2377,15 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
           <t>WINS 2022 - R X - Camiguin - 002</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" s="2" t="n">
+      <c r="X17" s="3" t="n">
         <v>44721</v>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2409,7 +2393,6 @@
           <t>MINKONSTRAK ENGINEERING &amp; GEN. SRVC.</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2473,21 +2456,15 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
           <t>WINS 2022 - R X - Camiguin - 003</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" s="2" t="n">
+      <c r="X18" s="3" t="n">
         <v>44721</v>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2495,7 +2472,6 @@
           <t>MINKONSTRAK ENGINEERING &amp; GEN. SRVC.</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2559,21 +2535,15 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
           <t>WINS 2022 - R X - Camiguin - 004</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" s="2" t="n">
+      <c r="X19" s="3" t="n">
         <v>44721</v>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2581,7 +2551,6 @@
           <t>MINKONSTRAK ENGINEERING &amp; GEN. SRVC.</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2645,10 +2614,9 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -2659,17 +2627,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" s="2" t="n">
+      <c r="X20" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2677,7 +2644,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2730,7 +2696,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2739,10 +2704,9 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -2753,17 +2717,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" s="2" t="n">
+      <c r="X21" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2771,7 +2734,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2824,7 +2786,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2833,10 +2794,9 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -2847,17 +2807,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" s="2" t="n">
+      <c r="X22" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2865,7 +2824,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2918,7 +2876,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2927,10 +2884,9 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -2941,17 +2897,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" s="2" t="n">
+      <c r="X23" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2959,7 +2914,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3012,7 +2966,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3021,10 +2974,9 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -3035,17 +2987,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" s="2" t="n">
+      <c r="X24" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3053,7 +3004,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3106,7 +3056,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3115,10 +3064,9 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -3129,17 +3077,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" s="2" t="n">
+      <c r="X25" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3147,7 +3094,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3200,7 +3146,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3209,10 +3154,9 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="P26" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -3223,17 +3167,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" s="2" t="n">
+      <c r="X26" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3241,7 +3184,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3294,7 +3236,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3303,10 +3244,9 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -3317,17 +3257,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" s="2" t="n">
+      <c r="X27" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3335,7 +3274,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3388,7 +3326,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3397,10 +3334,9 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -3411,17 +3347,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" s="2" t="n">
+      <c r="X28" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3429,7 +3364,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3482,7 +3416,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3491,10 +3424,9 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -3505,17 +3437,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="U29" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" s="2" t="n">
+      <c r="X29" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3523,7 +3454,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3576,7 +3506,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3585,10 +3514,9 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -3599,17 +3527,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" s="2" t="n">
+      <c r="X30" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3617,7 +3544,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3670,7 +3596,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3679,10 +3604,9 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="P31" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -3693,17 +3617,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" s="2" t="n">
+      <c r="X31" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3711,7 +3634,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3764,7 +3686,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3773,10 +3694,9 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -3787,17 +3707,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="V32" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" s="2" t="n">
+      <c r="X32" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3805,7 +3724,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3858,7 +3776,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3867,10 +3784,9 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>44919</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
           <t>2022-03-0048</t>
@@ -3881,17 +3797,16 @@
           <t>2022-08-0187</t>
         </is>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="T33" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="3" t="n">
         <v>44657</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" s="2" t="n">
+      <c r="X33" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="Y33" t="inlineStr">
@@ -3899,7 +3814,6 @@
           <t>HID Construction</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3952,7 +3866,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3961,29 +3874,27 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" s="2" t="n">
+      <c r="P34" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
           <t>Cluster Lot No. 1</t>
         </is>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="T34" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="W34" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X34" s="2" t="n">
+      <c r="X34" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y34" t="inlineStr">
@@ -3991,7 +3902,6 @@
           <t>GREEN Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4044,7 +3954,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4053,29 +3962,27 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" s="2" t="n">
+      <c r="P35" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
           <t>Cluster Lot No. 1</t>
         </is>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="T35" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="W35" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X35" s="2" t="n">
+      <c r="X35" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4083,7 +3990,6 @@
           <t>GREEN Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4136,7 +4042,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4145,29 +4050,27 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" s="2" t="n">
+      <c r="P36" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
           <t>Cluster Lot No. 1</t>
         </is>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="T36" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="W36" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X36" s="2" t="n">
+      <c r="X36" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4175,7 +4078,6 @@
           <t>GREEN Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4228,7 +4130,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4237,29 +4138,27 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" s="2" t="n">
+      <c r="P37" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
           <t>Cluster Lot No. 1</t>
         </is>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="W37" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X37" s="2" t="n">
+      <c r="X37" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4267,7 +4166,6 @@
           <t>GREEN Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4320,7 +4218,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4329,29 +4226,27 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" s="2" t="n">
+      <c r="P38" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
           <t>Cluster Lot No. 1</t>
         </is>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="W38" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X38" s="2" t="n">
+      <c r="X38" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4359,7 +4254,6 @@
           <t>GREEN Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4412,7 +4306,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4421,29 +4314,27 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P39" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
           <t>Cluster Lot No. 1</t>
         </is>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="T39" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="U39" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="V39" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W39" s="2" t="n">
+      <c r="W39" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X39" s="2" t="n">
+      <c r="X39" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4451,7 +4342,6 @@
           <t>GREEN Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4504,7 +4394,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4513,29 +4402,27 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" s="2" t="n">
+      <c r="P40" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
           <t>Cluster Lot No. 1</t>
         </is>
       </c>
-      <c r="T40" s="2" t="n">
+      <c r="T40" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U40" s="2" t="n">
+      <c r="U40" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V40" s="2" t="n">
+      <c r="V40" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W40" s="2" t="n">
+      <c r="W40" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X40" s="2" t="n">
+      <c r="X40" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y40" t="inlineStr">
@@ -4543,7 +4430,6 @@
           <t>GREEN Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4596,7 +4482,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4605,29 +4490,27 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" s="2" t="n">
+      <c r="P41" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
           <t>Cluster Lot No. 2</t>
         </is>
       </c>
-      <c r="T41" s="2" t="n">
+      <c r="T41" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U41" s="2" t="n">
+      <c r="U41" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V41" s="2" t="n">
+      <c r="V41" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W41" s="2" t="n">
+      <c r="W41" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X41" s="2" t="n">
+      <c r="X41" s="3" t="n">
         <v>44783</v>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4635,7 +4518,6 @@
           <t>GREEN Builder and Enterprises</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4688,7 +4570,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4697,29 +4578,27 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" s="2" t="n">
+      <c r="P42" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
           <t>Cluster Lot No. 2</t>
         </is>
       </c>
-      <c r="T42" s="2" t="n">
+      <c r="T42" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U42" s="2" t="n">
+      <c r="U42" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V42" s="2" t="n">
+      <c r="V42" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W42" s="2" t="n">
+      <c r="W42" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X42" s="2" t="n">
+      <c r="X42" s="3" t="n">
         <v>44783</v>
       </c>
       <c r="Y42" t="inlineStr">
@@ -4727,7 +4606,6 @@
           <t>GREEN Builder and Enterprises</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4780,7 +4658,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4789,29 +4666,27 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="P43" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
           <t>Cluster Lot No. 2</t>
         </is>
       </c>
-      <c r="T43" s="2" t="n">
+      <c r="T43" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U43" s="2" t="n">
+      <c r="U43" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V43" s="2" t="n">
+      <c r="V43" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W43" s="2" t="n">
+      <c r="W43" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X43" s="2" t="n">
+      <c r="X43" s="3" t="n">
         <v>44783</v>
       </c>
       <c r="Y43" t="inlineStr">
@@ -4819,7 +4694,6 @@
           <t>GREEN Builder and Enterprises</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4872,7 +4746,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4881,29 +4754,27 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" s="2" t="n">
+      <c r="P44" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
           <t>Cluster Lot No. 2</t>
         </is>
       </c>
-      <c r="T44" s="2" t="n">
+      <c r="T44" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U44" s="2" t="n">
+      <c r="U44" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V44" s="2" t="n">
+      <c r="V44" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W44" s="2" t="n">
+      <c r="W44" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X44" s="2" t="n">
+      <c r="X44" s="3" t="n">
         <v>44783</v>
       </c>
       <c r="Y44" t="inlineStr">
@@ -4911,7 +4782,6 @@
           <t>GREEN Builder and Enterprises</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4964,7 +4834,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4973,29 +4842,27 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" s="2" t="n">
+      <c r="P45" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
           <t>Cluster Lot No. 2</t>
         </is>
       </c>
-      <c r="T45" s="2" t="n">
+      <c r="T45" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U45" s="2" t="n">
+      <c r="U45" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V45" s="2" t="n">
+      <c r="V45" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W45" s="2" t="n">
+      <c r="W45" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X45" s="2" t="n">
+      <c r="X45" s="3" t="n">
         <v>44783</v>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5003,7 +4870,6 @@
           <t>GREEN Builder and Enterprises</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5056,7 +4922,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5065,29 +4930,27 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" s="2" t="n">
+      <c r="P46" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
           <t>Cluster Lot No. 2</t>
         </is>
       </c>
-      <c r="T46" s="2" t="n">
+      <c r="T46" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U46" s="2" t="n">
+      <c r="U46" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V46" s="2" t="n">
+      <c r="V46" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W46" s="2" t="n">
+      <c r="W46" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X46" s="2" t="n">
+      <c r="X46" s="3" t="n">
         <v>44783</v>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5095,7 +4958,6 @@
           <t>GREEN Builder and Enterprises</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5148,7 +5010,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5157,29 +5018,27 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" s="2" t="n">
+      <c r="P47" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
           <t>Cluster Lot No. 2</t>
         </is>
       </c>
-      <c r="T47" s="2" t="n">
+      <c r="T47" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U47" s="2" t="n">
+      <c r="U47" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V47" s="2" t="n">
+      <c r="V47" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W47" s="2" t="n">
+      <c r="W47" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X47" s="2" t="n">
+      <c r="X47" s="3" t="n">
         <v>44783</v>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5187,7 +5046,6 @@
           <t>GREEN Builder and Enterprises</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5240,7 +5098,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5249,29 +5106,27 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" s="2" t="n">
+      <c r="P48" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
           <t>Cluster Lot No. 2</t>
         </is>
       </c>
-      <c r="T48" s="2" t="n">
+      <c r="T48" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U48" s="2" t="n">
+      <c r="U48" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V48" s="2" t="n">
+      <c r="V48" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W48" s="2" t="n">
+      <c r="W48" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X48" s="2" t="n">
+      <c r="X48" s="3" t="n">
         <v>44783</v>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5279,7 +5134,6 @@
           <t>GREEN Builder and Enterprises</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5332,7 +5186,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>completed</t>
@@ -5341,31 +5194,30 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" s="2" t="n">
+      <c r="P49" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q49" s="2" t="n">
+      <c r="Q49" s="3" t="n">
         <v>45006</v>
       </c>
-      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
           <t>Cluster Lot No. 3</t>
         </is>
       </c>
-      <c r="T49" s="2" t="n">
+      <c r="T49" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U49" s="2" t="n">
+      <c r="U49" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V49" s="2" t="n">
+      <c r="V49" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W49" s="2" t="n">
+      <c r="W49" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="X49" s="2" t="n">
+      <c r="X49" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y49" t="inlineStr">
@@ -5373,7 +5225,6 @@
           <t>HAFFY Construction Services</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5426,7 +5277,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
           <t>completed</t>
@@ -5435,31 +5285,30 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" s="2" t="n">
+      <c r="P50" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q50" s="2" t="n">
+      <c r="Q50" s="3" t="n">
         <v>45006</v>
       </c>
-      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
           <t>Cluster Lot No. 3</t>
         </is>
       </c>
-      <c r="T50" s="2" t="n">
+      <c r="T50" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U50" s="2" t="n">
+      <c r="U50" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V50" s="2" t="n">
+      <c r="V50" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W50" s="2" t="n">
+      <c r="W50" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="X50" s="2" t="n">
+      <c r="X50" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y50" t="inlineStr">
@@ -5467,7 +5316,6 @@
           <t>HAFFY Construction Services</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5501,7 +5349,6 @@
       <c r="G51" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
         <v>1</v>
       </c>
@@ -5518,7 +5365,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>completed</t>
@@ -5527,31 +5373,30 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" s="2" t="n">
+      <c r="P51" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q51" s="2" t="n">
+      <c r="Q51" s="3" t="n">
         <v>45006</v>
       </c>
-      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
           <t>Cluster Lot No. 3</t>
         </is>
       </c>
-      <c r="T51" s="2" t="n">
+      <c r="T51" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U51" s="2" t="n">
+      <c r="U51" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V51" s="2" t="n">
+      <c r="V51" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W51" s="2" t="n">
+      <c r="W51" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="X51" s="2" t="n">
+      <c r="X51" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y51" t="inlineStr">
@@ -5559,7 +5404,6 @@
           <t>HAFFY Construction Services</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5612,7 +5456,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>completed</t>
@@ -5621,31 +5464,30 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="P52" s="2" t="n">
+      <c r="P52" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q52" s="2" t="n">
+      <c r="Q52" s="3" t="n">
         <v>45006</v>
       </c>
-      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
           <t>Cluster Lot No. 3</t>
         </is>
       </c>
-      <c r="T52" s="2" t="n">
+      <c r="T52" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U52" s="2" t="n">
+      <c r="U52" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V52" s="2" t="n">
+      <c r="V52" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W52" s="2" t="n">
+      <c r="W52" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="X52" s="2" t="n">
+      <c r="X52" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y52" t="inlineStr">
@@ -5653,7 +5495,6 @@
           <t>HAFFY Construction Services</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5706,7 +5547,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>completed</t>
@@ -5715,31 +5555,30 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P53" s="2" t="n">
+      <c r="P53" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q53" s="2" t="n">
+      <c r="Q53" s="3" t="n">
         <v>45006</v>
       </c>
-      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
           <t>Cluster Lot No. 3</t>
         </is>
       </c>
-      <c r="T53" s="2" t="n">
+      <c r="T53" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U53" s="2" t="n">
+      <c r="U53" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V53" s="2" t="n">
+      <c r="V53" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W53" s="2" t="n">
+      <c r="W53" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="X53" s="2" t="n">
+      <c r="X53" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y53" t="inlineStr">
@@ -5747,7 +5586,6 @@
           <t>HAFFY Construction Services</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5781,7 +5619,6 @@
       <c r="G54" t="n">
         <v>2</v>
       </c>
-      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
         <v>1</v>
       </c>
@@ -5798,7 +5635,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>completed</t>
@@ -5807,31 +5643,30 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54" s="2" t="n">
+      <c r="P54" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q54" s="2" t="n">
+      <c r="Q54" s="3" t="n">
         <v>45006</v>
       </c>
-      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr">
         <is>
           <t>Cluster Lot No. 3</t>
         </is>
       </c>
-      <c r="T54" s="2" t="n">
+      <c r="T54" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U54" s="2" t="n">
+      <c r="U54" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V54" s="2" t="n">
+      <c r="V54" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W54" s="2" t="n">
+      <c r="W54" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="X54" s="2" t="n">
+      <c r="X54" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y54" t="inlineStr">
@@ -5839,7 +5674,6 @@
           <t>HAFFY Construction Services</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5892,7 +5726,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>completed</t>
@@ -5901,31 +5734,30 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P55" s="2" t="n">
+      <c r="P55" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q55" s="2" t="n">
+      <c r="Q55" s="3" t="n">
         <v>45006</v>
       </c>
-      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr">
         <is>
           <t>Cluster Lot No. 3</t>
         </is>
       </c>
-      <c r="T55" s="2" t="n">
+      <c r="T55" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U55" s="2" t="n">
+      <c r="U55" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V55" s="2" t="n">
+      <c r="V55" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W55" s="2" t="n">
+      <c r="W55" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="X55" s="2" t="n">
+      <c r="X55" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y55" t="inlineStr">
@@ -5933,7 +5765,6 @@
           <t>HAFFY Construction Services</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5986,7 +5817,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>completed</t>
@@ -5995,31 +5825,30 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="P56" s="2" t="n">
+      <c r="P56" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q56" s="2" t="n">
+      <c r="Q56" s="3" t="n">
         <v>45006</v>
       </c>
-      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>Cluster Lot No. 3</t>
         </is>
       </c>
-      <c r="T56" s="2" t="n">
+      <c r="T56" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U56" s="2" t="n">
+      <c r="U56" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V56" s="2" t="n">
+      <c r="V56" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W56" s="2" t="n">
+      <c r="W56" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="X56" s="2" t="n">
+      <c r="X56" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y56" t="inlineStr">
@@ -6027,7 +5856,6 @@
           <t>HAFFY Construction Services</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6080,7 +5908,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6089,29 +5916,27 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
-      <c r="P57" s="2" t="n">
+      <c r="P57" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr">
         <is>
           <t>Cluster Lot No. 4</t>
         </is>
       </c>
-      <c r="T57" s="2" t="n">
+      <c r="T57" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U57" s="2" t="n">
+      <c r="U57" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V57" s="2" t="n">
+      <c r="V57" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W57" s="2" t="n">
+      <c r="W57" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X57" s="2" t="n">
+      <c r="X57" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="Y57" t="inlineStr">
@@ -6119,7 +5944,6 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6153,7 +5977,6 @@
       <c r="G58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
         <v>1</v>
       </c>
@@ -6170,7 +5993,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6179,29 +6001,27 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="P58" s="2" t="n">
+      <c r="P58" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr">
         <is>
           <t>Cluster Lot No. 4</t>
         </is>
       </c>
-      <c r="T58" s="2" t="n">
+      <c r="T58" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U58" s="2" t="n">
+      <c r="U58" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V58" s="2" t="n">
+      <c r="V58" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W58" s="2" t="n">
+      <c r="W58" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X58" s="2" t="n">
+      <c r="X58" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="Y58" t="inlineStr">
@@ -6209,7 +6029,6 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6262,7 +6081,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6271,29 +6089,27 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="P59" s="2" t="n">
+      <c r="P59" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr">
         <is>
           <t>Cluster Lot No. 4</t>
         </is>
       </c>
-      <c r="T59" s="2" t="n">
+      <c r="T59" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U59" s="2" t="n">
+      <c r="U59" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V59" s="2" t="n">
+      <c r="V59" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W59" s="2" t="n">
+      <c r="W59" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X59" s="2" t="n">
+      <c r="X59" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="Y59" t="inlineStr">
@@ -6301,7 +6117,6 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6335,7 +6150,6 @@
       <c r="G60" t="n">
         <v>2</v>
       </c>
-      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
         <v>1</v>
       </c>
@@ -6352,7 +6166,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6361,29 +6174,27 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" s="2" t="n">
+      <c r="P60" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr">
         <is>
           <t>Cluster Lot No. 4</t>
         </is>
       </c>
-      <c r="T60" s="2" t="n">
+      <c r="T60" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U60" s="2" t="n">
+      <c r="U60" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V60" s="2" t="n">
+      <c r="V60" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W60" s="2" t="n">
+      <c r="W60" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X60" s="2" t="n">
+      <c r="X60" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="Y60" t="inlineStr">
@@ -6391,7 +6202,6 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6444,7 +6254,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6453,29 +6262,27 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" s="2" t="n">
+      <c r="P61" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr">
         <is>
           <t>Cluster Lot No. 4</t>
         </is>
       </c>
-      <c r="T61" s="2" t="n">
+      <c r="T61" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U61" s="2" t="n">
+      <c r="U61" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V61" s="2" t="n">
+      <c r="V61" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W61" s="2" t="n">
+      <c r="W61" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X61" s="2" t="n">
+      <c r="X61" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="Y61" t="inlineStr">
@@ -6483,7 +6290,6 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6536,7 +6342,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6545,29 +6350,27 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" s="2" t="n">
+      <c r="P62" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr">
         <is>
           <t>Cluster Lot No. 4</t>
         </is>
       </c>
-      <c r="T62" s="2" t="n">
+      <c r="T62" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U62" s="2" t="n">
+      <c r="U62" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V62" s="2" t="n">
+      <c r="V62" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W62" s="2" t="n">
+      <c r="W62" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X62" s="2" t="n">
+      <c r="X62" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="Y62" t="inlineStr">
@@ -6575,7 +6378,6 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6628,7 +6430,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6637,29 +6438,27 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P63" s="2" t="n">
+      <c r="P63" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr">
         <is>
           <t>Cluster Lot No. 4</t>
         </is>
       </c>
-      <c r="T63" s="2" t="n">
+      <c r="T63" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U63" s="2" t="n">
+      <c r="U63" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V63" s="2" t="n">
+      <c r="V63" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W63" s="2" t="n">
+      <c r="W63" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X63" s="2" t="n">
+      <c r="X63" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="Y63" t="inlineStr">
@@ -6667,7 +6466,6 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6720,7 +6518,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6729,29 +6526,27 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" s="2" t="n">
+      <c r="P64" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr">
         <is>
           <t>Cluster Lot No. 4</t>
         </is>
       </c>
-      <c r="T64" s="2" t="n">
+      <c r="T64" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U64" s="2" t="n">
+      <c r="U64" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V64" s="2" t="n">
+      <c r="V64" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W64" s="2" t="n">
+      <c r="W64" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X64" s="2" t="n">
+      <c r="X64" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="Y64" t="inlineStr">
@@ -6759,7 +6554,6 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6812,7 +6606,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6821,29 +6614,27 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P65" s="2" t="n">
+      <c r="P65" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr">
         <is>
           <t>Cluster Lot No. 5</t>
         </is>
       </c>
-      <c r="T65" s="2" t="n">
+      <c r="T65" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U65" s="2" t="n">
+      <c r="U65" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V65" s="2" t="n">
+      <c r="V65" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W65" s="2" t="n">
+      <c r="W65" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X65" s="2" t="n">
+      <c r="X65" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y65" t="inlineStr">
@@ -6851,7 +6642,6 @@
           <t>RAMZIE Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6904,7 +6694,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6913,29 +6702,27 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" s="2" t="n">
+      <c r="P66" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr">
         <is>
           <t>Cluster Lot No. 5</t>
         </is>
       </c>
-      <c r="T66" s="2" t="n">
+      <c r="T66" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U66" s="2" t="n">
+      <c r="U66" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V66" s="2" t="n">
+      <c r="V66" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W66" s="2" t="n">
+      <c r="W66" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X66" s="2" t="n">
+      <c r="X66" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y66" t="inlineStr">
@@ -6943,7 +6730,6 @@
           <t>RAMZIE Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6996,7 +6782,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7005,29 +6790,27 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="P67" s="2" t="n">
+      <c r="P67" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr">
         <is>
           <t>Cluster Lot No. 5</t>
         </is>
       </c>
-      <c r="T67" s="2" t="n">
+      <c r="T67" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U67" s="2" t="n">
+      <c r="U67" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V67" s="2" t="n">
+      <c r="V67" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W67" s="2" t="n">
+      <c r="W67" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X67" s="2" t="n">
+      <c r="X67" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y67" t="inlineStr">
@@ -7035,7 +6818,6 @@
           <t>RAMZIE Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7088,7 +6870,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7097,29 +6878,27 @@
       <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="P68" s="2" t="n">
+      <c r="P68" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr">
         <is>
           <t>Cluster Lot No. 5</t>
         </is>
       </c>
-      <c r="T68" s="2" t="n">
+      <c r="T68" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U68" s="2" t="n">
+      <c r="U68" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V68" s="2" t="n">
+      <c r="V68" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W68" s="2" t="n">
+      <c r="W68" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X68" s="2" t="n">
+      <c r="X68" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y68" t="inlineStr">
@@ -7127,7 +6906,6 @@
           <t>RAMZIE Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7180,7 +6958,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7189,29 +6966,27 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P69" s="2" t="n">
+      <c r="P69" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr">
         <is>
           <t>Cluster Lot No. 6</t>
         </is>
       </c>
-      <c r="T69" s="2" t="n">
+      <c r="T69" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U69" s="2" t="n">
+      <c r="U69" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V69" s="2" t="n">
+      <c r="V69" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W69" s="2" t="n">
+      <c r="W69" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X69" s="2" t="n">
+      <c r="X69" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y69" t="inlineStr">
@@ -7219,7 +6994,6 @@
           <t>RAMZIE Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7253,7 +7027,6 @@
       <c r="G70" t="n">
         <v>2</v>
       </c>
-      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
         <v>1</v>
       </c>
@@ -7270,7 +7043,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7279,29 +7051,27 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" s="2" t="n">
+      <c r="P70" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr">
         <is>
           <t>Cluster Lot No. 6</t>
         </is>
       </c>
-      <c r="T70" s="2" t="n">
+      <c r="T70" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U70" s="2" t="n">
+      <c r="U70" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V70" s="2" t="n">
+      <c r="V70" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W70" s="2" t="n">
+      <c r="W70" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X70" s="2" t="n">
+      <c r="X70" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y70" t="inlineStr">
@@ -7309,7 +7079,6 @@
           <t>RAMZIE Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7362,7 +7131,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7371,29 +7139,27 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" s="2" t="n">
+      <c r="P71" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
           <t>Cluster Lot No. 6</t>
         </is>
       </c>
-      <c r="T71" s="2" t="n">
+      <c r="T71" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U71" s="2" t="n">
+      <c r="U71" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V71" s="2" t="n">
+      <c r="V71" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W71" s="2" t="n">
+      <c r="W71" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X71" s="2" t="n">
+      <c r="X71" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y71" t="inlineStr">
@@ -7401,7 +7167,6 @@
           <t>RAMZIE Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7454,7 +7219,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7463,29 +7227,27 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" s="2" t="n">
+      <c r="P72" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr">
         <is>
           <t>Cluster Lot No. 6</t>
         </is>
       </c>
-      <c r="T72" s="2" t="n">
+      <c r="T72" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U72" s="2" t="n">
+      <c r="U72" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V72" s="2" t="n">
+      <c r="V72" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W72" s="2" t="n">
+      <c r="W72" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X72" s="2" t="n">
+      <c r="X72" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y72" t="inlineStr">
@@ -7493,7 +7255,6 @@
           <t>RAMZIE Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7546,7 +7307,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7555,29 +7315,27 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
-      <c r="P73" s="2" t="n">
+      <c r="P73" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr">
         <is>
           <t>Cluster Lot No. 6</t>
         </is>
       </c>
-      <c r="T73" s="2" t="n">
+      <c r="T73" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U73" s="2" t="n">
+      <c r="U73" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V73" s="2" t="n">
+      <c r="V73" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W73" s="2" t="n">
+      <c r="W73" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X73" s="2" t="n">
+      <c r="X73" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y73" t="inlineStr">
@@ -7585,7 +7343,6 @@
           <t>RAMZIE Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7638,7 +7395,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7647,29 +7403,27 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="P74" s="2" t="n">
+      <c r="P74" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr">
         <is>
           <t>Cluster Lot No. 6</t>
         </is>
       </c>
-      <c r="T74" s="2" t="n">
+      <c r="T74" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U74" s="2" t="n">
+      <c r="U74" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V74" s="2" t="n">
+      <c r="V74" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W74" s="2" t="n">
+      <c r="W74" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X74" s="2" t="n">
+      <c r="X74" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y74" t="inlineStr">
@@ -7677,7 +7431,6 @@
           <t>RAMZIE Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7730,7 +7483,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7739,29 +7491,27 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
-      <c r="P75" s="2" t="n">
+      <c r="P75" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr">
         <is>
           <t>Cluster Lot No. 5</t>
         </is>
       </c>
-      <c r="T75" s="2" t="n">
+      <c r="T75" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U75" s="2" t="n">
+      <c r="U75" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V75" s="2" t="n">
+      <c r="V75" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W75" s="2" t="n">
+      <c r="W75" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X75" s="2" t="n">
+      <c r="X75" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y75" t="inlineStr">
@@ -7769,7 +7519,6 @@
           <t>RAMZIE Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7803,7 +7552,6 @@
       <c r="G76" t="n">
         <v>2</v>
       </c>
-      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
         <v>1</v>
       </c>
@@ -7820,7 +7568,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7829,29 +7576,27 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" s="2" t="n">
+      <c r="P76" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr">
         <is>
           <t>Cluster Lot No. 5</t>
         </is>
       </c>
-      <c r="T76" s="2" t="n">
+      <c r="T76" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U76" s="2" t="n">
+      <c r="U76" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V76" s="2" t="n">
+      <c r="V76" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W76" s="2" t="n">
+      <c r="W76" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X76" s="2" t="n">
+      <c r="X76" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y76" t="inlineStr">
@@ -7859,7 +7604,6 @@
           <t>RAMZIE Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7912,7 +7656,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7921,29 +7664,27 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" s="2" t="n">
+      <c r="P77" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr">
         <is>
           <t>Cluster Lot No. 5</t>
         </is>
       </c>
-      <c r="T77" s="2" t="n">
+      <c r="T77" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U77" s="2" t="n">
+      <c r="U77" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V77" s="2" t="n">
+      <c r="V77" s="3" t="n">
         <v>44761</v>
       </c>
-      <c r="W77" s="2" t="n">
+      <c r="W77" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X77" s="2" t="n">
+      <c r="X77" s="3" t="n">
         <v>44845</v>
       </c>
       <c r="Y77" t="inlineStr">
@@ -7951,7 +7692,6 @@
           <t>RAMZIE Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8004,7 +7744,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8013,29 +7752,27 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" s="2" t="n">
+      <c r="P78" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr">
         <is>
           <t>Cluster Lot No. 7</t>
         </is>
       </c>
-      <c r="T78" s="2" t="n">
+      <c r="T78" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U78" s="2" t="n">
+      <c r="U78" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V78" s="2" t="n">
+      <c r="V78" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W78" s="2" t="n">
+      <c r="W78" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X78" s="2" t="n">
+      <c r="X78" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="Y78" t="inlineStr">
@@ -8043,7 +7780,6 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8096,7 +7832,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8105,29 +7840,27 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" s="2" t="n">
+      <c r="P79" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr">
         <is>
           <t>Cluster Lot No. 7</t>
         </is>
       </c>
-      <c r="T79" s="2" t="n">
+      <c r="T79" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U79" s="2" t="n">
+      <c r="U79" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V79" s="2" t="n">
+      <c r="V79" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W79" s="2" t="n">
+      <c r="W79" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X79" s="2" t="n">
+      <c r="X79" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="Y79" t="inlineStr">
@@ -8135,7 +7868,6 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8188,7 +7920,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8197,29 +7928,27 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" s="2" t="n">
+      <c r="P80" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr">
         <is>
           <t>Cluster Lot No. 7</t>
         </is>
       </c>
-      <c r="T80" s="2" t="n">
+      <c r="T80" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U80" s="2" t="n">
+      <c r="U80" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V80" s="2" t="n">
+      <c r="V80" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W80" s="2" t="n">
+      <c r="W80" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X80" s="2" t="n">
+      <c r="X80" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="Y80" t="inlineStr">
@@ -8227,7 +7956,6 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8261,7 +7989,6 @@
       <c r="G81" t="n">
         <v>2</v>
       </c>
-      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
         <v>1</v>
       </c>
@@ -8278,7 +8005,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8287,29 +8013,27 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" s="2" t="n">
+      <c r="P81" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr">
         <is>
           <t>Cluster Lot No. 7</t>
         </is>
       </c>
-      <c r="T81" s="2" t="n">
+      <c r="T81" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U81" s="2" t="n">
+      <c r="U81" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="V81" s="2" t="n">
+      <c r="V81" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="W81" s="2" t="n">
+      <c r="W81" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="X81" s="2" t="n">
+      <c r="X81" s="3" t="n">
         <v>44781</v>
       </c>
       <c r="Y81" t="inlineStr">
@@ -8317,7 +8041,6 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8370,7 +8093,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8379,29 +8101,27 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" s="2" t="n">
+      <c r="P82" s="3" t="n">
         <v>45029</v>
       </c>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr">
         <is>
           <t>019-2022</t>
         </is>
       </c>
-      <c r="T82" s="2" t="n">
+      <c r="T82" s="3" t="n">
         <v>44808</v>
       </c>
-      <c r="U82" s="2" t="n">
+      <c r="U82" s="3" t="n">
         <v>44816</v>
       </c>
-      <c r="V82" s="2" t="n">
+      <c r="V82" s="3" t="n">
         <v>44830</v>
       </c>
-      <c r="W82" s="2" t="n">
+      <c r="W82" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X82" s="2" t="n">
+      <c r="X82" s="3" t="n">
         <v>44909</v>
       </c>
       <c r="Y82" t="inlineStr">
@@ -8466,7 +8186,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8475,29 +8194,27 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" s="2" t="n">
+      <c r="P83" s="3" t="n">
         <v>45029</v>
       </c>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr">
         <is>
           <t>019-2022</t>
         </is>
       </c>
-      <c r="T83" s="2" t="n">
+      <c r="T83" s="3" t="n">
         <v>44808</v>
       </c>
-      <c r="U83" s="2" t="n">
+      <c r="U83" s="3" t="n">
         <v>44816</v>
       </c>
-      <c r="V83" s="2" t="n">
+      <c r="V83" s="3" t="n">
         <v>44830</v>
       </c>
-      <c r="W83" s="2" t="n">
+      <c r="W83" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X83" s="2" t="n">
+      <c r="X83" s="3" t="n">
         <v>44909</v>
       </c>
       <c r="Y83" t="inlineStr">
@@ -8562,7 +8279,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8571,29 +8287,27 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="P84" s="2" t="n">
+      <c r="P84" s="3" t="n">
         <v>45029</v>
       </c>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr">
         <is>
           <t>019-2022</t>
         </is>
       </c>
-      <c r="T84" s="2" t="n">
+      <c r="T84" s="3" t="n">
         <v>44808</v>
       </c>
-      <c r="U84" s="2" t="n">
+      <c r="U84" s="3" t="n">
         <v>44816</v>
       </c>
-      <c r="V84" s="2" t="n">
+      <c r="V84" s="3" t="n">
         <v>44830</v>
       </c>
-      <c r="W84" s="2" t="n">
+      <c r="W84" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X84" s="2" t="n">
+      <c r="X84" s="3" t="n">
         <v>44909</v>
       </c>
       <c r="Y84" t="inlineStr">
@@ -8658,7 +8372,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8667,29 +8380,27 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
-      <c r="P85" s="2" t="n">
+      <c r="P85" s="3" t="n">
         <v>45029</v>
       </c>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr">
         <is>
           <t>019-2022</t>
         </is>
       </c>
-      <c r="T85" s="2" t="n">
+      <c r="T85" s="3" t="n">
         <v>44808</v>
       </c>
-      <c r="U85" s="2" t="n">
+      <c r="U85" s="3" t="n">
         <v>44816</v>
       </c>
-      <c r="V85" s="2" t="n">
+      <c r="V85" s="3" t="n">
         <v>44830</v>
       </c>
-      <c r="W85" s="2" t="n">
+      <c r="W85" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X85" s="2" t="n">
+      <c r="X85" s="3" t="n">
         <v>44909</v>
       </c>
       <c r="Y85" t="inlineStr">
@@ -8754,7 +8465,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8763,29 +8473,27 @@
       <c r="O86" t="n">
         <v>1</v>
       </c>
-      <c r="P86" s="2" t="n">
+      <c r="P86" s="3" t="n">
         <v>45029</v>
       </c>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr">
         <is>
           <t>019-2022</t>
         </is>
       </c>
-      <c r="T86" s="2" t="n">
+      <c r="T86" s="3" t="n">
         <v>44808</v>
       </c>
-      <c r="U86" s="2" t="n">
+      <c r="U86" s="3" t="n">
         <v>44816</v>
       </c>
-      <c r="V86" s="2" t="n">
+      <c r="V86" s="3" t="n">
         <v>44830</v>
       </c>
-      <c r="W86" s="2" t="n">
+      <c r="W86" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X86" s="2" t="n">
+      <c r="X86" s="3" t="n">
         <v>44909</v>
       </c>
       <c r="Y86" t="inlineStr">
@@ -8850,7 +8558,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8859,29 +8566,27 @@
       <c r="O87" t="n">
         <v>1</v>
       </c>
-      <c r="P87" s="2" t="n">
+      <c r="P87" s="3" t="n">
         <v>45029</v>
       </c>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr">
         <is>
           <t>019-2022</t>
         </is>
       </c>
-      <c r="T87" s="2" t="n">
+      <c r="T87" s="3" t="n">
         <v>44808</v>
       </c>
-      <c r="U87" s="2" t="n">
+      <c r="U87" s="3" t="n">
         <v>44816</v>
       </c>
-      <c r="V87" s="2" t="n">
+      <c r="V87" s="3" t="n">
         <v>44830</v>
       </c>
-      <c r="W87" s="2" t="n">
+      <c r="W87" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X87" s="2" t="n">
+      <c r="X87" s="3" t="n">
         <v>44909</v>
       </c>
       <c r="Y87" t="inlineStr">
@@ -8946,7 +8651,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8955,29 +8659,27 @@
       <c r="O88" t="n">
         <v>1</v>
       </c>
-      <c r="P88" s="2" t="n">
+      <c r="P88" s="3" t="n">
         <v>45029</v>
       </c>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr">
         <is>
           <t>019-2022</t>
         </is>
       </c>
-      <c r="T88" s="2" t="n">
+      <c r="T88" s="3" t="n">
         <v>44808</v>
       </c>
-      <c r="U88" s="2" t="n">
+      <c r="U88" s="3" t="n">
         <v>44816</v>
       </c>
-      <c r="V88" s="2" t="n">
+      <c r="V88" s="3" t="n">
         <v>44830</v>
       </c>
-      <c r="W88" s="2" t="n">
+      <c r="W88" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X88" s="2" t="n">
+      <c r="X88" s="3" t="n">
         <v>44909</v>
       </c>
       <c r="Y88" t="inlineStr">
@@ -9053,29 +8755,27 @@
       <c r="O89" t="n">
         <v>1</v>
       </c>
-      <c r="P89" s="2" t="n">
+      <c r="P89" s="3" t="n">
         <v>44961</v>
       </c>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr">
         <is>
           <t>014-2022</t>
         </is>
       </c>
-      <c r="T89" s="2" t="n">
+      <c r="T89" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U89" s="2" t="n">
+      <c r="U89" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V89" s="2" t="n">
+      <c r="V89" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W89" s="2" t="n">
+      <c r="W89" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X89" s="2" t="n">
+      <c r="X89" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y89" t="inlineStr">
@@ -9083,7 +8783,6 @@
           <t>RRJ Builders and Gen. Msde.</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9147,29 +8846,27 @@
       <c r="O90" t="n">
         <v>1</v>
       </c>
-      <c r="P90" s="2" t="n">
+      <c r="P90" s="3" t="n">
         <v>44961</v>
       </c>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr">
         <is>
           <t>014-2022</t>
         </is>
       </c>
-      <c r="T90" s="2" t="n">
+      <c r="T90" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U90" s="2" t="n">
+      <c r="U90" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V90" s="2" t="n">
+      <c r="V90" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W90" s="2" t="n">
+      <c r="W90" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X90" s="2" t="n">
+      <c r="X90" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y90" t="inlineStr">
@@ -9177,7 +8874,6 @@
           <t>RRJ Builders and Gen. Msde.</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9241,29 +8937,27 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
-      <c r="P91" s="2" t="n">
+      <c r="P91" s="3" t="n">
         <v>44961</v>
       </c>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr">
         <is>
           <t>014-2022</t>
         </is>
       </c>
-      <c r="T91" s="2" t="n">
+      <c r="T91" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U91" s="2" t="n">
+      <c r="U91" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V91" s="2" t="n">
+      <c r="V91" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W91" s="2" t="n">
+      <c r="W91" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X91" s="2" t="n">
+      <c r="X91" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y91" t="inlineStr">
@@ -9271,7 +8965,6 @@
           <t>RRJ Builders and Gen. Msde.</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9335,29 +9028,27 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
-      <c r="P92" s="2" t="n">
+      <c r="P92" s="3" t="n">
         <v>44961</v>
       </c>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr">
         <is>
           <t>014-2022</t>
         </is>
       </c>
-      <c r="T92" s="2" t="n">
+      <c r="T92" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U92" s="2" t="n">
+      <c r="U92" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V92" s="2" t="n">
+      <c r="V92" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W92" s="2" t="n">
+      <c r="W92" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X92" s="2" t="n">
+      <c r="X92" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y92" t="inlineStr">
@@ -9365,7 +9056,6 @@
           <t>RRJ Builders and Gen. Msde.</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9429,29 +9119,27 @@
       <c r="O93" t="n">
         <v>1</v>
       </c>
-      <c r="P93" s="2" t="n">
+      <c r="P93" s="3" t="n">
         <v>44961</v>
       </c>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr">
         <is>
           <t>014-2022</t>
         </is>
       </c>
-      <c r="T93" s="2" t="n">
+      <c r="T93" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U93" s="2" t="n">
+      <c r="U93" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V93" s="2" t="n">
+      <c r="V93" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W93" s="2" t="n">
+      <c r="W93" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X93" s="2" t="n">
+      <c r="X93" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y93" t="inlineStr">
@@ -9459,7 +9147,6 @@
           <t>RRJ Builders and Gen. Msde.</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9523,29 +9210,27 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
-      <c r="P94" s="2" t="n">
+      <c r="P94" s="3" t="n">
         <v>44961</v>
       </c>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr">
         <is>
           <t>014-2022</t>
         </is>
       </c>
-      <c r="T94" s="2" t="n">
+      <c r="T94" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U94" s="2" t="n">
+      <c r="U94" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V94" s="2" t="n">
+      <c r="V94" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W94" s="2" t="n">
+      <c r="W94" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X94" s="2" t="n">
+      <c r="X94" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y94" t="inlineStr">
@@ -9553,7 +9238,6 @@
           <t>RRJ Builders and Gen. Msde.</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9617,29 +9301,27 @@
       <c r="O95" t="n">
         <v>1</v>
       </c>
-      <c r="P95" s="2" t="n">
+      <c r="P95" s="3" t="n">
         <v>44961</v>
       </c>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr">
         <is>
           <t>014-2022</t>
         </is>
       </c>
-      <c r="T95" s="2" t="n">
+      <c r="T95" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U95" s="2" t="n">
+      <c r="U95" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V95" s="2" t="n">
+      <c r="V95" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W95" s="2" t="n">
+      <c r="W95" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X95" s="2" t="n">
+      <c r="X95" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y95" t="inlineStr">
@@ -9647,7 +9329,6 @@
           <t>RRJ Builders and Gen. Msde.</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9711,29 +9392,27 @@
       <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="P96" s="2" t="n">
+      <c r="P96" s="3" t="n">
         <v>44961</v>
       </c>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr">
         <is>
           <t>014-2022</t>
         </is>
       </c>
-      <c r="T96" s="2" t="n">
+      <c r="T96" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U96" s="2" t="n">
+      <c r="U96" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V96" s="2" t="n">
+      <c r="V96" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W96" s="2" t="n">
+      <c r="W96" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X96" s="2" t="n">
+      <c r="X96" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y96" t="inlineStr">
@@ -9741,7 +9420,6 @@
           <t>RRJ Builders and Gen. Msde.</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9805,29 +9483,27 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" s="2" t="n">
+      <c r="P97" s="3" t="n">
         <v>44961</v>
       </c>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr">
         <is>
           <t>014-2022</t>
         </is>
       </c>
-      <c r="T97" s="2" t="n">
+      <c r="T97" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U97" s="2" t="n">
+      <c r="U97" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V97" s="2" t="n">
+      <c r="V97" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W97" s="2" t="n">
+      <c r="W97" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X97" s="2" t="n">
+      <c r="X97" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y97" t="inlineStr">
@@ -9835,7 +9511,6 @@
           <t>RRJ Builders and Gen. Msde.</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9899,29 +9574,27 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
-      <c r="P98" s="2" t="n">
+      <c r="P98" s="3" t="n">
         <v>44961</v>
       </c>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr">
         <is>
           <t>014-2022</t>
         </is>
       </c>
-      <c r="T98" s="2" t="n">
+      <c r="T98" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U98" s="2" t="n">
+      <c r="U98" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V98" s="2" t="n">
+      <c r="V98" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W98" s="2" t="n">
+      <c r="W98" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X98" s="2" t="n">
+      <c r="X98" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y98" t="inlineStr">
@@ -9929,7 +9602,6 @@
           <t>RRJ Builders and Gen. Msde.</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9993,29 +9665,27 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
-      <c r="P99" s="2" t="n">
+      <c r="P99" s="3" t="n">
         <v>44961</v>
       </c>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr">
         <is>
           <t>014-2022</t>
         </is>
       </c>
-      <c r="T99" s="2" t="n">
+      <c r="T99" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U99" s="2" t="n">
+      <c r="U99" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V99" s="2" t="n">
+      <c r="V99" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W99" s="2" t="n">
+      <c r="W99" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X99" s="2" t="n">
+      <c r="X99" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="Y99" t="inlineStr">
@@ -10023,7 +9693,6 @@
           <t>RRJ Builders and Gen. Msde.</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10076,7 +9745,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10085,29 +9753,27 @@
       <c r="O100" t="n">
         <v>1</v>
       </c>
-      <c r="P100" s="2" t="n">
+      <c r="P100" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr">
         <is>
           <t>015-2022</t>
         </is>
       </c>
-      <c r="T100" s="2" t="n">
+      <c r="T100" s="3" t="n">
         <v>44740</v>
       </c>
-      <c r="U100" s="2" t="n">
+      <c r="U100" s="3" t="n">
         <v>44748</v>
       </c>
-      <c r="V100" s="2" t="n">
+      <c r="V100" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W100" s="2" t="n">
+      <c r="W100" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X100" s="2" t="n">
+      <c r="X100" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y100" t="inlineStr">
@@ -10115,7 +9781,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10168,7 +9833,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10177,29 +9841,27 @@
       <c r="O101" t="n">
         <v>1</v>
       </c>
-      <c r="P101" s="2" t="n">
+      <c r="P101" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr">
         <is>
           <t>015-2022</t>
         </is>
       </c>
-      <c r="T101" s="2" t="n">
+      <c r="T101" s="3" t="n">
         <v>44740</v>
       </c>
-      <c r="U101" s="2" t="n">
+      <c r="U101" s="3" t="n">
         <v>44748</v>
       </c>
-      <c r="V101" s="2" t="n">
+      <c r="V101" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W101" s="2" t="n">
+      <c r="W101" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X101" s="2" t="n">
+      <c r="X101" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y101" t="inlineStr">
@@ -10207,7 +9869,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10260,7 +9921,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10269,29 +9929,27 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
-      <c r="P102" s="2" t="n">
+      <c r="P102" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr">
         <is>
           <t>015-2022</t>
         </is>
       </c>
-      <c r="T102" s="2" t="n">
+      <c r="T102" s="3" t="n">
         <v>44740</v>
       </c>
-      <c r="U102" s="2" t="n">
+      <c r="U102" s="3" t="n">
         <v>44748</v>
       </c>
-      <c r="V102" s="2" t="n">
+      <c r="V102" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W102" s="2" t="n">
+      <c r="W102" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X102" s="2" t="n">
+      <c r="X102" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y102" t="inlineStr">
@@ -10299,7 +9957,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10352,7 +10009,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10361,29 +10017,27 @@
       <c r="O103" t="n">
         <v>1</v>
       </c>
-      <c r="P103" s="2" t="n">
+      <c r="P103" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr">
         <is>
           <t>015-2022</t>
         </is>
       </c>
-      <c r="T103" s="2" t="n">
+      <c r="T103" s="3" t="n">
         <v>44740</v>
       </c>
-      <c r="U103" s="2" t="n">
+      <c r="U103" s="3" t="n">
         <v>44748</v>
       </c>
-      <c r="V103" s="2" t="n">
+      <c r="V103" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W103" s="2" t="n">
+      <c r="W103" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X103" s="2" t="n">
+      <c r="X103" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y103" t="inlineStr">
@@ -10391,7 +10045,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10444,7 +10097,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10453,29 +10105,27 @@
       <c r="O104" t="n">
         <v>1</v>
       </c>
-      <c r="P104" s="2" t="n">
+      <c r="P104" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr">
         <is>
           <t>015-2022</t>
         </is>
       </c>
-      <c r="T104" s="2" t="n">
+      <c r="T104" s="3" t="n">
         <v>44740</v>
       </c>
-      <c r="U104" s="2" t="n">
+      <c r="U104" s="3" t="n">
         <v>44748</v>
       </c>
-      <c r="V104" s="2" t="n">
+      <c r="V104" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W104" s="2" t="n">
+      <c r="W104" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X104" s="2" t="n">
+      <c r="X104" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y104" t="inlineStr">
@@ -10483,7 +10133,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10536,7 +10185,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10545,29 +10193,27 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
-      <c r="P105" s="2" t="n">
+      <c r="P105" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr">
         <is>
           <t>015-2022</t>
         </is>
       </c>
-      <c r="T105" s="2" t="n">
+      <c r="T105" s="3" t="n">
         <v>44740</v>
       </c>
-      <c r="U105" s="2" t="n">
+      <c r="U105" s="3" t="n">
         <v>44748</v>
       </c>
-      <c r="V105" s="2" t="n">
+      <c r="V105" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W105" s="2" t="n">
+      <c r="W105" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X105" s="2" t="n">
+      <c r="X105" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y105" t="inlineStr">
@@ -10575,7 +10221,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10628,7 +10273,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10637,29 +10281,27 @@
       <c r="O106" t="n">
         <v>1</v>
       </c>
-      <c r="P106" s="2" t="n">
+      <c r="P106" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr">
         <is>
           <t>015-2022</t>
         </is>
       </c>
-      <c r="T106" s="2" t="n">
+      <c r="T106" s="3" t="n">
         <v>44740</v>
       </c>
-      <c r="U106" s="2" t="n">
+      <c r="U106" s="3" t="n">
         <v>44748</v>
       </c>
-      <c r="V106" s="2" t="n">
+      <c r="V106" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W106" s="2" t="n">
+      <c r="W106" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X106" s="2" t="n">
+      <c r="X106" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y106" t="inlineStr">
@@ -10667,7 +10309,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10720,7 +10361,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10729,29 +10369,27 @@
       <c r="O107" t="n">
         <v>1</v>
       </c>
-      <c r="P107" s="2" t="n">
+      <c r="P107" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr">
         <is>
           <t>015-2022</t>
         </is>
       </c>
-      <c r="T107" s="2" t="n">
+      <c r="T107" s="3" t="n">
         <v>44740</v>
       </c>
-      <c r="U107" s="2" t="n">
+      <c r="U107" s="3" t="n">
         <v>44748</v>
       </c>
-      <c r="V107" s="2" t="n">
+      <c r="V107" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W107" s="2" t="n">
+      <c r="W107" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="X107" s="2" t="n">
+      <c r="X107" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y107" t="inlineStr">
@@ -10759,7 +10397,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10812,7 +10449,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10821,29 +10457,27 @@
       <c r="O108" t="n">
         <v>1</v>
       </c>
-      <c r="P108" s="2" t="n">
+      <c r="P108" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T108" s="2" t="n">
+      <c r="T108" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U108" s="2" t="n">
+      <c r="U108" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V108" s="2" t="n">
+      <c r="V108" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W108" s="2" t="n">
+      <c r="W108" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X108" s="2" t="n">
+      <c r="X108" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y108" t="inlineStr">
@@ -10851,7 +10485,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10904,7 +10537,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10913,29 +10545,27 @@
       <c r="O109" t="n">
         <v>1</v>
       </c>
-      <c r="P109" s="2" t="n">
+      <c r="P109" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T109" s="2" t="n">
+      <c r="T109" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U109" s="2" t="n">
+      <c r="U109" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V109" s="2" t="n">
+      <c r="V109" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W109" s="2" t="n">
+      <c r="W109" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X109" s="2" t="n">
+      <c r="X109" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y109" t="inlineStr">
@@ -10943,7 +10573,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10996,7 +10625,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11005,29 +10633,27 @@
       <c r="O110" t="n">
         <v>1</v>
       </c>
-      <c r="P110" s="2" t="n">
+      <c r="P110" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T110" s="2" t="n">
+      <c r="T110" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U110" s="2" t="n">
+      <c r="U110" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V110" s="2" t="n">
+      <c r="V110" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W110" s="2" t="n">
+      <c r="W110" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X110" s="2" t="n">
+      <c r="X110" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y110" t="inlineStr">
@@ -11035,7 +10661,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11088,7 +10713,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11097,29 +10721,27 @@
       <c r="O111" t="n">
         <v>1</v>
       </c>
-      <c r="P111" s="2" t="n">
+      <c r="P111" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T111" s="2" t="n">
+      <c r="T111" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U111" s="2" t="n">
+      <c r="U111" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V111" s="2" t="n">
+      <c r="V111" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W111" s="2" t="n">
+      <c r="W111" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X111" s="2" t="n">
+      <c r="X111" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y111" t="inlineStr">
@@ -11127,7 +10749,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11180,7 +10801,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11189,29 +10809,27 @@
       <c r="O112" t="n">
         <v>1</v>
       </c>
-      <c r="P112" s="2" t="n">
+      <c r="P112" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T112" s="2" t="n">
+      <c r="T112" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U112" s="2" t="n">
+      <c r="U112" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V112" s="2" t="n">
+      <c r="V112" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W112" s="2" t="n">
+      <c r="W112" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X112" s="2" t="n">
+      <c r="X112" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y112" t="inlineStr">
@@ -11219,7 +10837,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11272,7 +10889,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11281,29 +10897,27 @@
       <c r="O113" t="n">
         <v>1</v>
       </c>
-      <c r="P113" s="2" t="n">
+      <c r="P113" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T113" s="2" t="n">
+      <c r="T113" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U113" s="2" t="n">
+      <c r="U113" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V113" s="2" t="n">
+      <c r="V113" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W113" s="2" t="n">
+      <c r="W113" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X113" s="2" t="n">
+      <c r="X113" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y113" t="inlineStr">
@@ -11311,7 +10925,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11364,7 +10977,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11373,29 +10985,27 @@
       <c r="O114" t="n">
         <v>1</v>
       </c>
-      <c r="P114" s="2" t="n">
+      <c r="P114" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T114" s="2" t="n">
+      <c r="T114" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U114" s="2" t="n">
+      <c r="U114" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V114" s="2" t="n">
+      <c r="V114" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W114" s="2" t="n">
+      <c r="W114" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X114" s="2" t="n">
+      <c r="X114" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y114" t="inlineStr">
@@ -11403,7 +11013,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -11456,7 +11065,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11465,29 +11073,27 @@
       <c r="O115" t="n">
         <v>1</v>
       </c>
-      <c r="P115" s="2" t="n">
+      <c r="P115" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T115" s="2" t="n">
+      <c r="T115" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U115" s="2" t="n">
+      <c r="U115" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V115" s="2" t="n">
+      <c r="V115" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W115" s="2" t="n">
+      <c r="W115" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X115" s="2" t="n">
+      <c r="X115" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y115" t="inlineStr">
@@ -11495,7 +11101,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -11548,7 +11153,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11557,29 +11161,27 @@
       <c r="O116" t="n">
         <v>1</v>
       </c>
-      <c r="P116" s="2" t="n">
+      <c r="P116" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T116" s="2" t="n">
+      <c r="T116" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U116" s="2" t="n">
+      <c r="U116" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V116" s="2" t="n">
+      <c r="V116" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W116" s="2" t="n">
+      <c r="W116" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X116" s="2" t="n">
+      <c r="X116" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y116" t="inlineStr">
@@ -11587,7 +11189,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11640,7 +11241,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11649,29 +11249,27 @@
       <c r="O117" t="n">
         <v>1</v>
       </c>
-      <c r="P117" s="2" t="n">
+      <c r="P117" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T117" s="2" t="n">
+      <c r="T117" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U117" s="2" t="n">
+      <c r="U117" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V117" s="2" t="n">
+      <c r="V117" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W117" s="2" t="n">
+      <c r="W117" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X117" s="2" t="n">
+      <c r="X117" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y117" t="inlineStr">
@@ -11679,7 +11277,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -11732,7 +11329,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11741,29 +11337,27 @@
       <c r="O118" t="n">
         <v>1</v>
       </c>
-      <c r="P118" s="2" t="n">
+      <c r="P118" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T118" s="2" t="n">
+      <c r="T118" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U118" s="2" t="n">
+      <c r="U118" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V118" s="2" t="n">
+      <c r="V118" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W118" s="2" t="n">
+      <c r="W118" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X118" s="2" t="n">
+      <c r="X118" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y118" t="inlineStr">
@@ -11771,7 +11365,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11824,7 +11417,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11833,29 +11425,27 @@
       <c r="O119" t="n">
         <v>1</v>
       </c>
-      <c r="P119" s="2" t="n">
+      <c r="P119" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T119" s="2" t="n">
+      <c r="T119" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U119" s="2" t="n">
+      <c r="U119" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V119" s="2" t="n">
+      <c r="V119" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W119" s="2" t="n">
+      <c r="W119" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X119" s="2" t="n">
+      <c r="X119" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y119" t="inlineStr">
@@ -11863,7 +11453,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11916,7 +11505,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11925,29 +11513,27 @@
       <c r="O120" t="n">
         <v>1</v>
       </c>
-      <c r="P120" s="2" t="n">
+      <c r="P120" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T120" s="2" t="n">
+      <c r="T120" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U120" s="2" t="n">
+      <c r="U120" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V120" s="2" t="n">
+      <c r="V120" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W120" s="2" t="n">
+      <c r="W120" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X120" s="2" t="n">
+      <c r="X120" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y120" t="inlineStr">
@@ -11955,7 +11541,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12008,7 +11593,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12017,29 +11601,27 @@
       <c r="O121" t="n">
         <v>1</v>
       </c>
-      <c r="P121" s="2" t="n">
+      <c r="P121" s="3" t="n">
         <v>44975</v>
       </c>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
       <c r="S121" t="inlineStr">
         <is>
           <t>016-2022</t>
         </is>
       </c>
-      <c r="T121" s="2" t="n">
+      <c r="T121" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U121" s="2" t="n">
+      <c r="U121" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V121" s="2" t="n">
+      <c r="V121" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W121" s="2" t="n">
+      <c r="W121" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X121" s="2" t="n">
+      <c r="X121" s="3" t="n">
         <v>44848</v>
       </c>
       <c r="Y121" t="inlineStr">
@@ -12047,7 +11629,6 @@
           <t>Kayro Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -12100,7 +11681,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12109,29 +11689,27 @@
       <c r="O122" t="n">
         <v>1</v>
       </c>
-      <c r="P122" s="2" t="n">
+      <c r="P122" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr">
         <is>
           <t>017-2022</t>
         </is>
       </c>
-      <c r="T122" s="2" t="n">
+      <c r="T122" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U122" s="2" t="n">
+      <c r="U122" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V122" s="2" t="n">
+      <c r="V122" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W122" s="2" t="n">
+      <c r="W122" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X122" s="2" t="n">
+      <c r="X122" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y122" t="inlineStr">
@@ -12139,7 +11717,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -12192,7 +11769,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12201,29 +11777,27 @@
       <c r="O123" t="n">
         <v>1</v>
       </c>
-      <c r="P123" s="2" t="n">
+      <c r="P123" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
       <c r="S123" t="inlineStr">
         <is>
           <t>017-2022</t>
         </is>
       </c>
-      <c r="T123" s="2" t="n">
+      <c r="T123" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U123" s="2" t="n">
+      <c r="U123" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V123" s="2" t="n">
+      <c r="V123" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W123" s="2" t="n">
+      <c r="W123" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X123" s="2" t="n">
+      <c r="X123" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y123" t="inlineStr">
@@ -12231,7 +11805,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -12284,7 +11857,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12293,29 +11865,27 @@
       <c r="O124" t="n">
         <v>1</v>
       </c>
-      <c r="P124" s="2" t="n">
+      <c r="P124" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
       <c r="S124" t="inlineStr">
         <is>
           <t>017-2022</t>
         </is>
       </c>
-      <c r="T124" s="2" t="n">
+      <c r="T124" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U124" s="2" t="n">
+      <c r="U124" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V124" s="2" t="n">
+      <c r="V124" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W124" s="2" t="n">
+      <c r="W124" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X124" s="2" t="n">
+      <c r="X124" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y124" t="inlineStr">
@@ -12323,7 +11893,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -12376,7 +11945,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12385,29 +11953,27 @@
       <c r="O125" t="n">
         <v>1</v>
       </c>
-      <c r="P125" s="2" t="n">
+      <c r="P125" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
       <c r="S125" t="inlineStr">
         <is>
           <t>017-2022</t>
         </is>
       </c>
-      <c r="T125" s="2" t="n">
+      <c r="T125" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U125" s="2" t="n">
+      <c r="U125" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V125" s="2" t="n">
+      <c r="V125" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W125" s="2" t="n">
+      <c r="W125" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X125" s="2" t="n">
+      <c r="X125" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y125" t="inlineStr">
@@ -12415,7 +11981,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -12468,7 +12033,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12477,29 +12041,27 @@
       <c r="O126" t="n">
         <v>1</v>
       </c>
-      <c r="P126" s="2" t="n">
+      <c r="P126" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
       <c r="S126" t="inlineStr">
         <is>
           <t>017-2022</t>
         </is>
       </c>
-      <c r="T126" s="2" t="n">
+      <c r="T126" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U126" s="2" t="n">
+      <c r="U126" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V126" s="2" t="n">
+      <c r="V126" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W126" s="2" t="n">
+      <c r="W126" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X126" s="2" t="n">
+      <c r="X126" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y126" t="inlineStr">
@@ -12507,7 +12069,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -12560,7 +12121,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12569,29 +12129,27 @@
       <c r="O127" t="n">
         <v>1</v>
       </c>
-      <c r="P127" s="2" t="n">
+      <c r="P127" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
       <c r="S127" t="inlineStr">
         <is>
           <t>017-2022</t>
         </is>
       </c>
-      <c r="T127" s="2" t="n">
+      <c r="T127" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U127" s="2" t="n">
+      <c r="U127" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V127" s="2" t="n">
+      <c r="V127" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W127" s="2" t="n">
+      <c r="W127" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X127" s="2" t="n">
+      <c r="X127" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y127" t="inlineStr">
@@ -12599,7 +12157,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -12652,7 +12209,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12661,29 +12217,27 @@
       <c r="O128" t="n">
         <v>1</v>
       </c>
-      <c r="P128" s="2" t="n">
+      <c r="P128" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr">
         <is>
           <t>017-2022</t>
         </is>
       </c>
-      <c r="T128" s="2" t="n">
+      <c r="T128" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U128" s="2" t="n">
+      <c r="U128" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V128" s="2" t="n">
+      <c r="V128" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W128" s="2" t="n">
+      <c r="W128" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X128" s="2" t="n">
+      <c r="X128" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y128" t="inlineStr">
@@ -12691,7 +12245,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -12744,7 +12297,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12753,29 +12305,27 @@
       <c r="O129" t="n">
         <v>1</v>
       </c>
-      <c r="P129" s="2" t="n">
+      <c r="P129" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr">
         <is>
           <t>017-2022</t>
         </is>
       </c>
-      <c r="T129" s="2" t="n">
+      <c r="T129" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U129" s="2" t="n">
+      <c r="U129" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V129" s="2" t="n">
+      <c r="V129" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W129" s="2" t="n">
+      <c r="W129" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X129" s="2" t="n">
+      <c r="X129" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y129" t="inlineStr">
@@ -12783,7 +12333,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12836,7 +12385,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12845,29 +12393,27 @@
       <c r="O130" t="n">
         <v>1</v>
       </c>
-      <c r="P130" s="2" t="n">
+      <c r="P130" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr">
         <is>
           <t>017-2022</t>
         </is>
       </c>
-      <c r="T130" s="2" t="n">
+      <c r="T130" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U130" s="2" t="n">
+      <c r="U130" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V130" s="2" t="n">
+      <c r="V130" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W130" s="2" t="n">
+      <c r="W130" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X130" s="2" t="n">
+      <c r="X130" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y130" t="inlineStr">
@@ -12875,7 +12421,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -12928,7 +12473,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12937,29 +12481,27 @@
       <c r="O131" t="n">
         <v>1</v>
       </c>
-      <c r="P131" s="2" t="n">
+      <c r="P131" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
       <c r="S131" t="inlineStr">
         <is>
           <t>017-2022</t>
         </is>
       </c>
-      <c r="T131" s="2" t="n">
+      <c r="T131" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U131" s="2" t="n">
+      <c r="U131" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V131" s="2" t="n">
+      <c r="V131" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W131" s="2" t="n">
+      <c r="W131" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X131" s="2" t="n">
+      <c r="X131" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y131" t="inlineStr">
@@ -12967,7 +12509,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -13020,7 +12561,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13029,29 +12569,27 @@
       <c r="O132" t="n">
         <v>1</v>
       </c>
-      <c r="P132" s="2" t="n">
+      <c r="P132" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
       <c r="S132" t="inlineStr">
         <is>
           <t>017-2022</t>
         </is>
       </c>
-      <c r="T132" s="2" t="n">
+      <c r="T132" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U132" s="2" t="n">
+      <c r="U132" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V132" s="2" t="n">
+      <c r="V132" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W132" s="2" t="n">
+      <c r="W132" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X132" s="2" t="n">
+      <c r="X132" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y132" t="inlineStr">
@@ -13059,7 +12597,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -13112,7 +12649,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13121,29 +12657,27 @@
       <c r="O133" t="n">
         <v>1</v>
       </c>
-      <c r="P133" s="2" t="n">
+      <c r="P133" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
       <c r="S133" t="inlineStr">
         <is>
           <t>017-2022</t>
         </is>
       </c>
-      <c r="T133" s="2" t="n">
+      <c r="T133" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U133" s="2" t="n">
+      <c r="U133" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V133" s="2" t="n">
+      <c r="V133" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W133" s="2" t="n">
+      <c r="W133" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X133" s="2" t="n">
+      <c r="X133" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y133" t="inlineStr">
@@ -13151,7 +12685,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -13204,7 +12737,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13213,29 +12745,27 @@
       <c r="O134" t="n">
         <v>1</v>
       </c>
-      <c r="P134" s="2" t="n">
+      <c r="P134" s="3" t="n">
         <v>44968</v>
       </c>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
       <c r="S134" t="inlineStr">
         <is>
           <t>017-2022</t>
         </is>
       </c>
-      <c r="T134" s="2" t="n">
+      <c r="T134" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="U134" s="2" t="n">
+      <c r="U134" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V134" s="2" t="n">
+      <c r="V134" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W134" s="2" t="n">
+      <c r="W134" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="X134" s="2" t="n">
+      <c r="X134" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="Y134" t="inlineStr">
@@ -13243,7 +12773,6 @@
           <t>3R'S BUILDERS &amp; RESOURCES</t>
         </is>
       </c>
-      <c r="Z134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -13307,27 +12836,25 @@
       <c r="O135" t="n">
         <v>1</v>
       </c>
-      <c r="P135" s="2" t="n">
+      <c r="P135" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
       <c r="S135" t="n">
         <v>3871971</v>
       </c>
-      <c r="T135" s="2" t="n">
+      <c r="T135" s="3" t="n">
         <v>44782</v>
       </c>
-      <c r="U135" s="2" t="n">
+      <c r="U135" s="3" t="n">
         <v>44789</v>
       </c>
-      <c r="V135" s="2" t="n">
+      <c r="V135" s="3" t="n">
         <v>44803</v>
       </c>
-      <c r="W135" s="2" t="n">
+      <c r="W135" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="X135" s="2" t="n">
+      <c r="X135" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="Y135" t="inlineStr">
@@ -13335,7 +12862,6 @@
           <t>TRI FB CONST. AND GEN. MRDSE</t>
         </is>
       </c>
-      <c r="Z135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -13399,27 +12925,25 @@
       <c r="O136" t="n">
         <v>1</v>
       </c>
-      <c r="P136" s="2" t="n">
+      <c r="P136" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
       <c r="S136" t="n">
         <v>3871971</v>
       </c>
-      <c r="T136" s="2" t="n">
+      <c r="T136" s="3" t="n">
         <v>44782</v>
       </c>
-      <c r="U136" s="2" t="n">
+      <c r="U136" s="3" t="n">
         <v>44789</v>
       </c>
-      <c r="V136" s="2" t="n">
+      <c r="V136" s="3" t="n">
         <v>44803</v>
       </c>
-      <c r="W136" s="2" t="n">
+      <c r="W136" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="X136" s="2" t="n">
+      <c r="X136" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="Y136" t="inlineStr">
@@ -13427,7 +12951,6 @@
           <t>TRI FB CONST. AND GEN. MRDSE</t>
         </is>
       </c>
-      <c r="Z136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -13491,27 +13014,25 @@
       <c r="O137" t="n">
         <v>1</v>
       </c>
-      <c r="P137" s="2" t="n">
+      <c r="P137" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
       <c r="S137" t="n">
         <v>3871971</v>
       </c>
-      <c r="T137" s="2" t="n">
+      <c r="T137" s="3" t="n">
         <v>44782</v>
       </c>
-      <c r="U137" s="2" t="n">
+      <c r="U137" s="3" t="n">
         <v>44789</v>
       </c>
-      <c r="V137" s="2" t="n">
+      <c r="V137" s="3" t="n">
         <v>44803</v>
       </c>
-      <c r="W137" s="2" t="n">
+      <c r="W137" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="X137" s="2" t="n">
+      <c r="X137" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="Y137" t="inlineStr">
@@ -13519,7 +13040,6 @@
           <t>TRI FB CONST. AND GEN. MRDSE</t>
         </is>
       </c>
-      <c r="Z137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -13583,27 +13103,25 @@
       <c r="O138" t="n">
         <v>1</v>
       </c>
-      <c r="P138" s="2" t="n">
+      <c r="P138" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
       <c r="S138" t="n">
         <v>3871971</v>
       </c>
-      <c r="T138" s="2" t="n">
+      <c r="T138" s="3" t="n">
         <v>44782</v>
       </c>
-      <c r="U138" s="2" t="n">
+      <c r="U138" s="3" t="n">
         <v>44789</v>
       </c>
-      <c r="V138" s="2" t="n">
+      <c r="V138" s="3" t="n">
         <v>44803</v>
       </c>
-      <c r="W138" s="2" t="n">
+      <c r="W138" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="X138" s="2" t="n">
+      <c r="X138" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="Y138" t="inlineStr">
@@ -13611,7 +13129,6 @@
           <t>TRI FB CONST. AND GEN. MRDSE</t>
         </is>
       </c>
-      <c r="Z138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -13675,27 +13192,25 @@
       <c r="O139" t="n">
         <v>1</v>
       </c>
-      <c r="P139" s="2" t="n">
+      <c r="P139" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
       <c r="S139" t="n">
         <v>3874972</v>
       </c>
-      <c r="T139" s="2" t="n">
+      <c r="T139" s="3" t="n">
         <v>44782</v>
       </c>
-      <c r="U139" s="2" t="n">
+      <c r="U139" s="3" t="n">
         <v>44789</v>
       </c>
-      <c r="V139" s="2" t="n">
+      <c r="V139" s="3" t="n">
         <v>44803</v>
       </c>
-      <c r="W139" s="2" t="n">
+      <c r="W139" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="X139" s="2" t="n">
+      <c r="X139" s="3" t="n">
         <v>44923</v>
       </c>
       <c r="Y139" t="inlineStr">
@@ -13703,7 +13218,6 @@
           <t>KL BUILDER SERVICES AND SUPPLIES</t>
         </is>
       </c>
-      <c r="Z139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -13767,27 +13281,25 @@
       <c r="O140" t="n">
         <v>1</v>
       </c>
-      <c r="P140" s="2" t="n">
+      <c r="P140" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
       <c r="S140" t="n">
         <v>3871971</v>
       </c>
-      <c r="T140" s="2" t="n">
+      <c r="T140" s="3" t="n">
         <v>44782</v>
       </c>
-      <c r="U140" s="2" t="n">
+      <c r="U140" s="3" t="n">
         <v>44789</v>
       </c>
-      <c r="V140" s="2" t="n">
+      <c r="V140" s="3" t="n">
         <v>44803</v>
       </c>
-      <c r="W140" s="2" t="n">
+      <c r="W140" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="X140" s="2" t="n">
+      <c r="X140" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="Y140" t="inlineStr">
@@ -13795,7 +13307,6 @@
           <t>TRI FB CONST. AND GEN. MRDSE</t>
         </is>
       </c>
-      <c r="Z140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -13859,7 +13370,7 @@
       <c r="O141" t="n">
         <v>1</v>
       </c>
-      <c r="P141" s="2" t="n">
+      <c r="P141" s="3" t="n">
         <v>44904</v>
       </c>
       <c r="Q141" t="inlineStr">
@@ -13867,23 +13378,22 @@
           <t>April 20.2023</t>
         </is>
       </c>
-      <c r="R141" t="inlineStr"/>
       <c r="S141" t="n">
         <v>3871971</v>
       </c>
-      <c r="T141" s="2" t="n">
+      <c r="T141" s="3" t="n">
         <v>44782</v>
       </c>
-      <c r="U141" s="2" t="n">
+      <c r="U141" s="3" t="n">
         <v>44789</v>
       </c>
-      <c r="V141" s="2" t="n">
+      <c r="V141" s="3" t="n">
         <v>44803</v>
       </c>
-      <c r="W141" s="2" t="n">
+      <c r="W141" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="X141" s="2" t="n">
+      <c r="X141" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="Y141" t="inlineStr">
@@ -13891,7 +13401,6 @@
           <t>TRI FB CONST. AND GEN. MRDSE</t>
         </is>
       </c>
-      <c r="Z141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13955,27 +13464,25 @@
       <c r="O142" t="n">
         <v>1</v>
       </c>
-      <c r="P142" s="2" t="n">
+      <c r="P142" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
       <c r="S142" t="n">
         <v>3871973</v>
       </c>
-      <c r="T142" s="2" t="n">
+      <c r="T142" s="3" t="n">
         <v>44782</v>
       </c>
-      <c r="U142" s="2" t="n">
+      <c r="U142" s="3" t="n">
         <v>44789</v>
       </c>
-      <c r="V142" s="2" t="n">
+      <c r="V142" s="3" t="n">
         <v>44803</v>
       </c>
-      <c r="W142" s="2" t="n">
+      <c r="W142" s="3" t="n">
         <v>44823</v>
       </c>
-      <c r="X142" s="2" t="n">
+      <c r="X142" s="3" t="n">
         <v>44909</v>
       </c>
       <c r="Y142" t="inlineStr">
@@ -13983,7 +13490,79 @@
           <t>DICACE CONST. AND SUPPLIES TRADING</t>
         </is>
       </c>
-      <c r="Z142" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AA2:AA142" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Filtered_By_Region/Region X/Region X_HEALTH.xlsx
+++ b/Filtered_By_Region/Region X/Region X_HEALTH.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA142"/>
+  <dimension ref="A1:AF142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Physical Target</t>
+          <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>BATCH</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -569,7 +569,32 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Reverted</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Not yet started</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Under Procurement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites On Going</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Completed</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -612,11 +637,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -625,11 +645,6 @@
       <c r="K2" t="n">
         <v>3250000</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M2" t="n">
         <v>2851203.94</v>
       </c>
@@ -734,11 +749,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -747,11 +757,6 @@
       <c r="K3" t="n">
         <v>3792377.06</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M3" t="n">
         <v>3104683.66</v>
       </c>
@@ -856,11 +861,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -869,11 +869,6 @@
       <c r="K4" t="n">
         <v>3995351.01</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M4" t="n">
         <v>3744327.68</v>
       </c>
@@ -978,11 +973,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -991,11 +981,6 @@
       <c r="K5" t="n">
         <v>2994361</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M5" t="n">
         <v>2352919.89</v>
       </c>
@@ -1100,11 +1085,6 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1113,11 +1093,6 @@
       <c r="K6" t="n">
         <v>2937873.19</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M6" t="n">
         <v>2908494.46</v>
       </c>
@@ -1217,11 +1192,6 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1230,11 +1200,6 @@
       <c r="K7" t="n">
         <v>2933245.82</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M7" t="n">
         <v>2199869.55</v>
       </c>
@@ -1339,11 +1304,6 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1352,11 +1312,6 @@
       <c r="K8" t="n">
         <v>250000</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M8" t="n">
         <v>240050.3</v>
       </c>
@@ -1441,11 +1396,6 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1454,11 +1404,6 @@
       <c r="K9" t="n">
         <v>3642255.6</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M9" t="n">
         <v>3058004.97</v>
       </c>
@@ -1563,11 +1508,6 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Construction of Health Facilities</t>
@@ -1576,11 +1516,6 @@
       <c r="K10" t="n">
         <v>2994136.07</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M10" t="n">
         <v>2991345.25</v>
       </c>
@@ -1685,11 +1620,6 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1698,11 +1628,6 @@
       <c r="K11" t="n">
         <v>2784018.17</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M11" t="n">
         <v>2250784.19</v>
       </c>
@@ -1802,11 +1727,6 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1815,11 +1735,6 @@
       <c r="K12" t="n">
         <v>2933245.82</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M12" t="n">
         <v>2924786.36</v>
       </c>
@@ -1914,11 +1829,6 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>Construction of School Clinic and Construction of Toilet (4-Seater) with Handwashing</t>
@@ -1927,11 +1837,6 @@
       <c r="K13" t="n">
         <v>3806245.25</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M13" t="n">
         <v>3792882.61</v>
       </c>
@@ -2036,11 +1941,6 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -2049,11 +1949,6 @@
       <c r="K14" t="n">
         <v>2969830.3</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M14" t="n">
         <v>2910263.88</v>
       </c>
@@ -2153,11 +2048,6 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -2166,11 +2056,6 @@
       <c r="K15" t="n">
         <v>6820243.92</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M15" t="n">
         <v>5774303.39</v>
       </c>
@@ -13493,7 +13378,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA142" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF142" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region X/Region X_HEALTH.xlsx
+++ b/Filtered_By_Region/Region X/Region X_HEALTH.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
